--- a/www/BasesDeDatos/LigasEstadosCovid.xlsx
+++ b/www/BasesDeDatos/LigasEstadosCovid.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Documents/GitHub/medidasEconomicasCovid19/www/BasesDeDatos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B33FCEEC-D891-4546-AF6E-459CA4C28C1C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A460469-492A-0241-B6EF-CC1B2A05F400}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15100" yWindow="460" windowWidth="15460" windowHeight="14940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13340" yWindow="460" windowWidth="15460" windowHeight="14940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Untitled" sheetId="1" r:id="rId1"/>
@@ -245,9 +245,6 @@
     <t>http://coronavirus.veracruz.gob.mx</t>
   </si>
   <si>
-    <t>https://www.tlaxcala.gob.mx/index.php?option=com_content&amp;view=article&amp;id=2747</t>
-  </si>
-  <si>
     <t>https://coronavirus.tamaulipas.gob.mx</t>
   </si>
   <si>
@@ -321,6 +318,9 @@
   </si>
   <si>
     <t>No hay un micrositio dedicado</t>
+  </si>
+  <si>
+    <t>https://www.tlaxcala.gob.mx/index.php/gobierno/covid-19</t>
   </si>
 </sst>
 </file>
@@ -1175,7 +1175,7 @@
   <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1207,7 +1207,7 @@
         <v>35</v>
       </c>
       <c r="C2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
@@ -1221,7 +1221,7 @@
         <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
@@ -1234,8 +1234,8 @@
       <c r="B4" t="s">
         <v>37</v>
       </c>
-      <c r="C4" t="s">
-        <v>92</v>
+      <c r="C4" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -1249,7 +1249,7 @@
         <v>38</v>
       </c>
       <c r="C5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -1263,7 +1263,7 @@
         <v>59</v>
       </c>
       <c r="C6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D6" t="s">
         <v>2</v>
@@ -1277,7 +1277,7 @@
         <v>39</v>
       </c>
       <c r="C7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D7" t="s">
         <v>8</v>
@@ -1291,7 +1291,7 @@
         <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D8" t="s">
         <v>9</v>
@@ -1305,7 +1305,7 @@
         <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D9" t="s">
         <v>10</v>
@@ -1319,7 +1319,7 @@
         <v>42</v>
       </c>
       <c r="C10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D10" t="s">
         <v>11</v>
@@ -1333,7 +1333,7 @@
         <v>43</v>
       </c>
       <c r="C11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
@@ -1347,7 +1347,7 @@
         <v>44</v>
       </c>
       <c r="C12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D12" t="s">
         <v>13</v>
@@ -1361,7 +1361,7 @@
         <v>45</v>
       </c>
       <c r="C13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D13" t="s">
         <v>14</v>
@@ -1375,7 +1375,7 @@
         <v>46</v>
       </c>
       <c r="C14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D14" t="s">
         <v>15</v>
@@ -1389,7 +1389,7 @@
         <v>47</v>
       </c>
       <c r="C15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D15" t="s">
         <v>16</v>
@@ -1403,7 +1403,7 @@
         <v>60</v>
       </c>
       <c r="C16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D16" t="s">
         <v>17</v>
@@ -1417,7 +1417,7 @@
         <v>61</v>
       </c>
       <c r="C17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D17" t="s">
         <v>18</v>
@@ -1431,7 +1431,7 @@
         <v>48</v>
       </c>
       <c r="C18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D18" t="s">
         <v>19</v>
@@ -1445,7 +1445,7 @@
         <v>49</v>
       </c>
       <c r="C19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D19" t="s">
         <v>20</v>
@@ -1459,7 +1459,7 @@
         <v>64</v>
       </c>
       <c r="C20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D20" t="s">
         <v>21</v>
@@ -1473,7 +1473,7 @@
         <v>50</v>
       </c>
       <c r="C21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D21" t="s">
         <v>22</v>
@@ -1487,7 +1487,7 @@
         <v>51</v>
       </c>
       <c r="C22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D22" t="s">
         <v>23</v>
@@ -1501,7 +1501,7 @@
         <v>66</v>
       </c>
       <c r="C23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D23" t="s">
         <v>24</v>
@@ -1515,7 +1515,7 @@
         <v>52</v>
       </c>
       <c r="C24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D24" t="s">
         <v>25</v>
@@ -1529,7 +1529,7 @@
         <v>62</v>
       </c>
       <c r="C25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D25" t="s">
         <v>26</v>
@@ -1543,7 +1543,7 @@
         <v>53</v>
       </c>
       <c r="C26" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D26" t="s">
         <v>27</v>
@@ -1557,7 +1557,7 @@
         <v>54</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D27" t="s">
         <v>28</v>
@@ -1571,7 +1571,7 @@
         <v>55</v>
       </c>
       <c r="C28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D28" t="s">
         <v>29</v>
@@ -1585,7 +1585,7 @@
         <v>56</v>
       </c>
       <c r="C29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D29" t="s">
         <v>30</v>
@@ -1599,7 +1599,7 @@
         <v>57</v>
       </c>
       <c r="C30" t="s">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="D30" t="s">
         <v>31</v>
@@ -1650,6 +1650,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C27" r:id="rId1" xr:uid="{4B9AF296-16A4-2542-BE07-7D74261C2810}"/>
+    <hyperlink ref="C4" r:id="rId2" xr:uid="{53CA2F52-19BB-DF46-B6AB-414D9DF6633E}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/www/BasesDeDatos/LigasEstadosCovid.xlsx
+++ b/www/BasesDeDatos/LigasEstadosCovid.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Documents/GitHub/medidasEconomicasCovid19/www/BasesDeDatos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A460469-492A-0241-B6EF-CC1B2A05F400}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DBC59A7-00A5-AC43-B4EA-7C726252A9FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13340" yWindow="460" windowWidth="15460" windowHeight="14940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -158,9 +158,6 @@
     <t>CHIHUAHUA</t>
   </si>
   <si>
-    <t>CIUDAD DE MEXICO</t>
-  </si>
-  <si>
     <t>DURANGO</t>
   </si>
   <si>
@@ -321,6 +318,9 @@
   </si>
   <si>
     <t>https://www.tlaxcala.gob.mx/index.php/gobierno/covid-19</t>
+  </si>
+  <si>
+    <t>CIUDAD DE MÉXICO</t>
   </si>
 </sst>
 </file>
@@ -1175,7 +1175,7 @@
   <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1193,7 +1193,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -1207,7 +1207,7 @@
         <v>35</v>
       </c>
       <c r="C2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
@@ -1221,7 +1221,7 @@
         <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
@@ -1235,7 +1235,7 @@
         <v>37</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -1249,7 +1249,7 @@
         <v>38</v>
       </c>
       <c r="C5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -1260,10 +1260,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D6" t="s">
         <v>2</v>
@@ -1277,7 +1277,7 @@
         <v>39</v>
       </c>
       <c r="C7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D7" t="s">
         <v>8</v>
@@ -1291,7 +1291,7 @@
         <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D8" t="s">
         <v>9</v>
@@ -1305,7 +1305,7 @@
         <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D9" t="s">
         <v>10</v>
@@ -1316,10 +1316,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="C10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D10" t="s">
         <v>11</v>
@@ -1330,10 +1330,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
@@ -1344,10 +1344,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D12" t="s">
         <v>13</v>
@@ -1358,10 +1358,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D13" t="s">
         <v>14</v>
@@ -1372,10 +1372,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D14" t="s">
         <v>15</v>
@@ -1386,10 +1386,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D15" t="s">
         <v>16</v>
@@ -1400,10 +1400,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D16" t="s">
         <v>17</v>
@@ -1414,10 +1414,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D17" t="s">
         <v>18</v>
@@ -1428,10 +1428,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D18" t="s">
         <v>19</v>
@@ -1442,10 +1442,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D19" t="s">
         <v>20</v>
@@ -1456,10 +1456,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D20" t="s">
         <v>21</v>
@@ -1470,10 +1470,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D21" t="s">
         <v>22</v>
@@ -1484,10 +1484,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D22" t="s">
         <v>23</v>
@@ -1498,10 +1498,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D23" t="s">
         <v>24</v>
@@ -1512,10 +1512,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D24" t="s">
         <v>25</v>
@@ -1526,10 +1526,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D25" t="s">
         <v>26</v>
@@ -1540,10 +1540,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C26" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D26" t="s">
         <v>27</v>
@@ -1554,10 +1554,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D27" t="s">
         <v>28</v>
@@ -1568,10 +1568,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D28" t="s">
         <v>29</v>
@@ -1582,10 +1582,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C29" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D29" t="s">
         <v>30</v>
@@ -1596,10 +1596,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D30" t="s">
         <v>31</v>
@@ -1610,10 +1610,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D31" t="s">
         <v>32</v>
@@ -1624,10 +1624,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D32" t="s">
         <v>33</v>
@@ -1638,10 +1638,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C33" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D33" t="s">
         <v>34</v>

--- a/www/BasesDeDatos/LigasEstadosCovid.xlsx
+++ b/www/BasesDeDatos/LigasEstadosCovid.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Documents/GitHub/medidasEconomicasCovid19/www/BasesDeDatos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DBC59A7-00A5-AC43-B4EA-7C726252A9FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0550D22C-53D0-994E-84D3-9C423B62617C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13340" yWindow="460" windowWidth="15460" windowHeight="14940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -320,7 +320,7 @@
     <t>https://www.tlaxcala.gob.mx/index.php/gobierno/covid-19</t>
   </si>
   <si>
-    <t>CIUDAD DE MÉXICO</t>
+    <t>CDMX</t>
   </si>
 </sst>
 </file>
@@ -1174,8 +1174,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/www/BasesDeDatos/LigasEstadosCovid.xlsx
+++ b/www/BasesDeDatos/LigasEstadosCovid.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Documents/GitHub/medidasEconomicasCovid19/www/BasesDeDatos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0550D22C-53D0-994E-84D3-9C423B62617C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB7304D0-96F9-294A-A5C8-7403EBF6AB2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13340" yWindow="460" windowWidth="15460" windowHeight="14940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Untitled" sheetId="1" r:id="rId1"/>
@@ -212,24 +212,9 @@
     <t>MEXICO</t>
   </si>
   <si>
-    <t>MICHOACAN DE OCAMPO</t>
-  </si>
-  <si>
-    <t>SAN LUIS POTOSI</t>
-  </si>
-  <si>
-    <t>YUCATAN</t>
-  </si>
-  <si>
-    <t>NUEVO LEON</t>
-  </si>
-  <si>
     <t>VERACRUZ DE IGNACIO DE LA LLAVE</t>
   </si>
   <si>
-    <t>QUERETARO DE ARTEAGA</t>
-  </si>
-  <si>
     <t>Micrositio</t>
   </si>
   <si>
@@ -321,6 +306,21 @@
   </si>
   <si>
     <t>CDMX</t>
+  </si>
+  <si>
+    <t>YUCATÁN</t>
+  </si>
+  <si>
+    <t>SAN LUIS POTOSÍ</t>
+  </si>
+  <si>
+    <t>NUEVO LEÓN</t>
+  </si>
+  <si>
+    <t>QUERÉTARO</t>
+  </si>
+  <si>
+    <t>MICHOACÁN DE OCAMPO</t>
   </si>
 </sst>
 </file>
@@ -1175,7 +1175,7 @@
   <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1193,7 +1193,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -1207,7 +1207,7 @@
         <v>35</v>
       </c>
       <c r="C2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
@@ -1221,7 +1221,7 @@
         <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
@@ -1235,7 +1235,7 @@
         <v>37</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -1249,7 +1249,7 @@
         <v>38</v>
       </c>
       <c r="C5" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -1263,7 +1263,7 @@
         <v>58</v>
       </c>
       <c r="C6" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D6" t="s">
         <v>2</v>
@@ -1277,7 +1277,7 @@
         <v>39</v>
       </c>
       <c r="C7" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D7" t="s">
         <v>8</v>
@@ -1291,7 +1291,7 @@
         <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D8" t="s">
         <v>9</v>
@@ -1305,7 +1305,7 @@
         <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D9" t="s">
         <v>10</v>
@@ -1316,10 +1316,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C10" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D10" t="s">
         <v>11</v>
@@ -1333,7 +1333,7 @@
         <v>42</v>
       </c>
       <c r="C11" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
@@ -1347,7 +1347,7 @@
         <v>43</v>
       </c>
       <c r="C12" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D12" t="s">
         <v>13</v>
@@ -1361,7 +1361,7 @@
         <v>44</v>
       </c>
       <c r="C13" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D13" t="s">
         <v>14</v>
@@ -1375,7 +1375,7 @@
         <v>45</v>
       </c>
       <c r="C14" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D14" t="s">
         <v>15</v>
@@ -1389,7 +1389,7 @@
         <v>46</v>
       </c>
       <c r="C15" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D15" t="s">
         <v>16</v>
@@ -1403,7 +1403,7 @@
         <v>59</v>
       </c>
       <c r="C16" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D16" t="s">
         <v>17</v>
@@ -1414,10 +1414,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="C17" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D17" t="s">
         <v>18</v>
@@ -1431,7 +1431,7 @@
         <v>47</v>
       </c>
       <c r="C18" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D18" t="s">
         <v>19</v>
@@ -1445,7 +1445,7 @@
         <v>48</v>
       </c>
       <c r="C19" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D19" t="s">
         <v>20</v>
@@ -1456,10 +1456,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="C20" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D20" t="s">
         <v>21</v>
@@ -1473,7 +1473,7 @@
         <v>49</v>
       </c>
       <c r="C21" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D21" t="s">
         <v>22</v>
@@ -1487,7 +1487,7 @@
         <v>50</v>
       </c>
       <c r="C22" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D22" t="s">
         <v>23</v>
@@ -1498,10 +1498,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="C23" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D23" t="s">
         <v>24</v>
@@ -1515,7 +1515,7 @@
         <v>51</v>
       </c>
       <c r="C24" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D24" t="s">
         <v>25</v>
@@ -1526,10 +1526,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="C25" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D25" t="s">
         <v>26</v>
@@ -1543,7 +1543,7 @@
         <v>52</v>
       </c>
       <c r="C26" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D26" t="s">
         <v>27</v>
@@ -1557,7 +1557,7 @@
         <v>53</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D27" t="s">
         <v>28</v>
@@ -1571,7 +1571,7 @@
         <v>54</v>
       </c>
       <c r="C28" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D28" t="s">
         <v>29</v>
@@ -1585,7 +1585,7 @@
         <v>55</v>
       </c>
       <c r="C29" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D29" t="s">
         <v>30</v>
@@ -1599,7 +1599,7 @@
         <v>56</v>
       </c>
       <c r="C30" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D30" t="s">
         <v>31</v>
@@ -1610,10 +1610,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" t="s">
         <v>64</v>
-      </c>
-      <c r="C31" t="s">
-        <v>69</v>
       </c>
       <c r="D31" t="s">
         <v>32</v>
@@ -1624,10 +1624,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="C32" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D32" t="s">
         <v>33</v>
@@ -1641,7 +1641,7 @@
         <v>57</v>
       </c>
       <c r="C33" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D33" t="s">
         <v>34</v>
